--- a/xlsx/美国的大规模监控_intext.xlsx
+++ b/xlsx/美国的大规模监控_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
   <si>
     <t>美国的大规模监控</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家安全局</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美国的大规模监控</t>
+    <t>美国国家安全局</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美国的大规模监控</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A7%84%E6%A8%A1%E7%9B%91%E6%8E%A7</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%AF%E9%9A%8A%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>梯隊系統</t>
+    <t>梯队系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Main_Core</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A8%9C%E9%8F%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>稜鏡計畫</t>
+    <t>稜镜计画</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Boundless_Informant</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%84%9B%E5%9C%8B%E8%80%85%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國愛國者法案</t>
+    <t>美国爱国者法案</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_Foreign_Intelligence_Surveillance_Court</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%B6%B2%E6%88%B0%E5%8F%B8%E4%BB%A4%E9%83%A8</t>
   </si>
   <si>
-    <t>美國網戰司令部</t>
+    <t>美国网战司令部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美國國土安全部</t>
+    <t>美国国土安全部</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Information_Awareness_Office</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
-    <t>國家安全局</t>
+    <t>国家安全局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%81%E4%B8%8D%E5%90%8C%E6%94%BF%E8%A7%81%E8%80%85</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
@@ -449,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E6%B4%BB%E5%8B%95%E5%AE%B6</t>
   </si>
   <si>
-    <t>社會活動家</t>
+    <t>社会活动家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
@@ -461,13 +461,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E5%8D%94%E5%AE%9A</t>
   </si>
   <si>
-    <t>英美協定</t>
+    <t>英美协定</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E7%9C%BC%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>五眼聯盟</t>
+    <t>五眼联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9C%8B%E8%80%85%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>愛國者法案</t>
+    <t>爱国者法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B1%E9%95%9C%E8%AE%A1%E5%88%92</t>
@@ -527,9 +527,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%9C%9F%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
-    <t>美国国土安全部</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E8%81%94%E6%B1%87%E6%AC%BE</t>
   </si>
   <si>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%88%B0%E7%88%AD%E9%83%A8</t>
   </si>
   <si>
-    <t>美國戰爭部</t>
+    <t>美国战争部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%99%86%E5%86%9B</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>電信公司</t>
+    <t>电信公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%8A%E5%8D%97%E6%88%98%E4%BA%89</t>
@@ -605,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%AB%8A%E8%81%BD</t>
   </si>
   <si>
-    <t>電話竊聽</t>
+    <t>电话窃听</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%9F%83%E5%BE%B7%E5%8A%A0%C2%B7%E8%83%A1%E4%BD%9B</t>
@@ -629,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E8%90%8A%E5%A1%A2%E9%BB%91%E5%90%8D%E5%96%AE</t>
   </si>
   <si>
-    <t>好萊塢黑名單</t>
+    <t>好莱坞黑名单</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fred_Hampton</t>
@@ -719,7 +716,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%A0%BC%E6%9A%97%E6%AE%BA</t>
   </si>
   <si>
-    <t>人格暗殺</t>
+    <t>人格暗杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E4%BC%AF%E7%89%B9%C2%B7%E7%88%B1%E5%9B%A0%E6%96%AF%E5%9D%A6</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%AD%A6%E5%99%A8%E6%93%B4%E6%95%A3</t>
   </si>
   <si>
-    <t>核武器擴散</t>
+    <t>核武器扩散</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%A8%E5%9B%BD%E6%9C%89%E8%89%B2%E4%BA%BA%E7%A7%8D%E5%8D%8F%E8%BF%9B%E4%BC%9A</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E5%9B%A0%E6%96%AF%E5%9D%A6%E7%9A%84%E6%94%BF%E6%B2%BB%E8%A7%80</t>
   </si>
   <si>
-    <t>愛因斯坦的政治觀</t>
+    <t>爱因斯坦的政治观</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E4%B8%81%C2%B7%E8%B7%AF%E5%BE%B7%C2%B7%E9%87%91</t>
@@ -791,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%98%E5%A5%87%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>丘奇委員會</t>
+    <t>丘奇委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E8%BF%AA%E6%96%AF%E5%B0%BC</t>
@@ -809,13 +806,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E8%97%9D%E7%95%8C</t>
   </si>
   <si>
-    <t>演藝界</t>
+    <t>演艺界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%C2%B7%E6%9E%97%E5%BE%B7%E4%BC%AF%E6%A0%BC</t>
   </si>
   <si>
-    <t>查爾斯·林德伯格</t>
+    <t>查尔斯·林德伯格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E6%A3%AE%E8%B1%AA%E5%A8%81%E5%B0%94%E6%80%BB%E7%BB%9F</t>
@@ -839,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%98%E8%BF%BA%E8%BF%AA%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>甘迺迪總統</t>
+    <t>甘迺迪总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8%E9%95%BF</t>
@@ -851,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E4%BC%AF%E7%89%B9%C2%B7%E5%BC%97%E6%9C%97%E8%A5%BF%E6%96%AF%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>羅伯特·弗朗西斯·甘迺迪</t>
+    <t>罗伯特·弗朗西斯·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E7%BA%A6%E7%BF%B0%E9%80%8A</t>
@@ -995,7 +992,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Total_Information_Awareness</t>
@@ -1043,25 +1040,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A6%AE%C2%B7%E6%87%B7%E7%99%BB</t>
   </si>
   <si>
-    <t>榮·懷登</t>
+    <t>荣·怀登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E5%80%AB%C2%B7%E5%A4%9A%E7%94%98</t>
   </si>
   <si>
-    <t>拜倫·多甘</t>
+    <t>拜伦·多甘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%9E%E7%BA%BF</t>
@@ -1115,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%80%AB%C2%B7%E8%91%9B%E6%9E%97%E8%8F%AF%E5%BE%B7</t>
   </si>
   <si>
-    <t>葛倫·葛林華德</t>
+    <t>葛伦·葛林华德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%80%9A%E4%BF%A1%E6%80%BB%E9%83%A8</t>
@@ -1127,13 +1124,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E9%9B%BB%E8%A8%8A</t>
   </si>
   <si>
-    <t>澳洲電訊</t>
+    <t>澳洲电讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%B7%E6%AD%8C</t>
@@ -4134,7 +4131,7 @@
         <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>108</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4160,10 +4157,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" t="s">
         <v>171</v>
-      </c>
-      <c r="F90" t="s">
-        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4189,10 +4186,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" t="s">
         <v>173</v>
-      </c>
-      <c r="F91" t="s">
-        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4218,10 +4215,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>174</v>
+      </c>
+      <c r="F92" t="s">
         <v>175</v>
-      </c>
-      <c r="F92" t="s">
-        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4247,10 +4244,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>176</v>
+      </c>
+      <c r="F93" t="s">
         <v>177</v>
-      </c>
-      <c r="F93" t="s">
-        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4276,10 +4273,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>178</v>
+      </c>
+      <c r="F94" t="s">
         <v>179</v>
-      </c>
-      <c r="F94" t="s">
-        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>4</v>
@@ -4305,10 +4302,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>180</v>
+      </c>
+      <c r="F95" t="s">
         <v>181</v>
-      </c>
-      <c r="F95" t="s">
-        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4334,10 +4331,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" t="s">
         <v>183</v>
-      </c>
-      <c r="F96" t="s">
-        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>4</v>
@@ -4363,10 +4360,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>184</v>
+      </c>
+      <c r="F97" t="s">
         <v>185</v>
-      </c>
-      <c r="F97" t="s">
-        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4392,10 +4389,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>186</v>
+      </c>
+      <c r="F98" t="s">
         <v>187</v>
-      </c>
-      <c r="F98" t="s">
-        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>6</v>
@@ -4421,10 +4418,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>188</v>
+      </c>
+      <c r="F99" t="s">
         <v>189</v>
-      </c>
-      <c r="F99" t="s">
-        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4450,10 +4447,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" t="s">
         <v>191</v>
-      </c>
-      <c r="F100" t="s">
-        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>6</v>
@@ -4479,10 +4476,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>192</v>
+      </c>
+      <c r="F101" t="s">
         <v>193</v>
-      </c>
-      <c r="F101" t="s">
-        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>7</v>
@@ -4508,10 +4505,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>194</v>
+      </c>
+      <c r="F102" t="s">
         <v>195</v>
-      </c>
-      <c r="F102" t="s">
-        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>3</v>
@@ -4566,10 +4563,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>196</v>
+      </c>
+      <c r="F104" t="s">
         <v>197</v>
-      </c>
-      <c r="F104" t="s">
-        <v>198</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4595,10 +4592,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F105" t="s">
         <v>199</v>
-      </c>
-      <c r="F105" t="s">
-        <v>200</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4624,10 +4621,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F106" t="s">
         <v>201</v>
-      </c>
-      <c r="F106" t="s">
-        <v>202</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4653,10 +4650,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>202</v>
+      </c>
+      <c r="F107" t="s">
         <v>203</v>
-      </c>
-      <c r="F107" t="s">
-        <v>204</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4682,10 +4679,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>204</v>
+      </c>
+      <c r="F108" t="s">
         <v>205</v>
-      </c>
-      <c r="F108" t="s">
-        <v>206</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4711,10 +4708,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>206</v>
+      </c>
+      <c r="F109" t="s">
         <v>207</v>
-      </c>
-      <c r="F109" t="s">
-        <v>208</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4740,10 +4737,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>208</v>
+      </c>
+      <c r="F110" t="s">
         <v>209</v>
-      </c>
-      <c r="F110" t="s">
-        <v>210</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4769,10 +4766,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>210</v>
+      </c>
+      <c r="F111" t="s">
         <v>211</v>
-      </c>
-      <c r="F111" t="s">
-        <v>212</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4798,10 +4795,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>212</v>
+      </c>
+      <c r="F112" t="s">
         <v>213</v>
-      </c>
-      <c r="F112" t="s">
-        <v>214</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4827,10 +4824,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>214</v>
+      </c>
+      <c r="F113" t="s">
         <v>215</v>
-      </c>
-      <c r="F113" t="s">
-        <v>216</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4856,10 +4853,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>216</v>
+      </c>
+      <c r="F114" t="s">
         <v>217</v>
-      </c>
-      <c r="F114" t="s">
-        <v>218</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4885,10 +4882,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>218</v>
+      </c>
+      <c r="F115" t="s">
         <v>219</v>
-      </c>
-      <c r="F115" t="s">
-        <v>220</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4914,10 +4911,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>220</v>
+      </c>
+      <c r="F116" t="s">
         <v>221</v>
-      </c>
-      <c r="F116" t="s">
-        <v>222</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4943,10 +4940,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>222</v>
+      </c>
+      <c r="F117" t="s">
         <v>223</v>
-      </c>
-      <c r="F117" t="s">
-        <v>224</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -4972,10 +4969,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>224</v>
+      </c>
+      <c r="F118" t="s">
         <v>225</v>
-      </c>
-      <c r="F118" t="s">
-        <v>226</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5001,10 +4998,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>226</v>
+      </c>
+      <c r="F119" t="s">
         <v>227</v>
-      </c>
-      <c r="F119" t="s">
-        <v>228</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5030,10 +5027,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>228</v>
+      </c>
+      <c r="F120" t="s">
         <v>229</v>
-      </c>
-      <c r="F120" t="s">
-        <v>230</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5059,10 +5056,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>230</v>
+      </c>
+      <c r="F121" t="s">
         <v>231</v>
-      </c>
-      <c r="F121" t="s">
-        <v>232</v>
       </c>
       <c r="G121" t="n">
         <v>3</v>
@@ -5088,10 +5085,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>232</v>
+      </c>
+      <c r="F122" t="s">
         <v>233</v>
-      </c>
-      <c r="F122" t="s">
-        <v>234</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5117,10 +5114,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>234</v>
+      </c>
+      <c r="F123" t="s">
         <v>235</v>
-      </c>
-      <c r="F123" t="s">
-        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -5146,10 +5143,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>236</v>
+      </c>
+      <c r="F124" t="s">
         <v>237</v>
-      </c>
-      <c r="F124" t="s">
-        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5175,10 +5172,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F125" t="s">
         <v>239</v>
-      </c>
-      <c r="F125" t="s">
-        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5204,10 +5201,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>240</v>
+      </c>
+      <c r="F126" t="s">
         <v>241</v>
-      </c>
-      <c r="F126" t="s">
-        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5233,10 +5230,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>242</v>
+      </c>
+      <c r="F127" t="s">
         <v>243</v>
-      </c>
-      <c r="F127" t="s">
-        <v>244</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -5262,10 +5259,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>244</v>
+      </c>
+      <c r="F128" t="s">
         <v>245</v>
-      </c>
-      <c r="F128" t="s">
-        <v>246</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5291,10 +5288,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>246</v>
+      </c>
+      <c r="F129" t="s">
         <v>247</v>
-      </c>
-      <c r="F129" t="s">
-        <v>248</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5320,10 +5317,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>248</v>
+      </c>
+      <c r="F130" t="s">
         <v>249</v>
-      </c>
-      <c r="F130" t="s">
-        <v>250</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5349,10 +5346,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>250</v>
+      </c>
+      <c r="F131" t="s">
         <v>251</v>
-      </c>
-      <c r="F131" t="s">
-        <v>252</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5378,10 +5375,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>252</v>
+      </c>
+      <c r="F132" t="s">
         <v>253</v>
-      </c>
-      <c r="F132" t="s">
-        <v>254</v>
       </c>
       <c r="G132" t="n">
         <v>3</v>
@@ -5407,10 +5404,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>254</v>
+      </c>
+      <c r="F133" t="s">
         <v>255</v>
-      </c>
-      <c r="F133" t="s">
-        <v>256</v>
       </c>
       <c r="G133" t="n">
         <v>2</v>
@@ -5436,10 +5433,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="s">
         <v>257</v>
-      </c>
-      <c r="F134" t="s">
-        <v>258</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -5465,10 +5462,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" t="s">
         <v>259</v>
-      </c>
-      <c r="F135" t="s">
-        <v>260</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5494,10 +5491,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5523,10 +5520,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5552,10 +5549,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>192</v>
+      </c>
+      <c r="F138" t="s">
         <v>193</v>
-      </c>
-      <c r="F138" t="s">
-        <v>194</v>
       </c>
       <c r="G138" t="n">
         <v>3</v>
@@ -5581,10 +5578,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" t="s">
         <v>265</v>
-      </c>
-      <c r="F139" t="s">
-        <v>266</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5610,10 +5607,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>186</v>
+      </c>
+      <c r="F140" t="s">
         <v>187</v>
-      </c>
-      <c r="F140" t="s">
-        <v>188</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -5639,10 +5636,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>266</v>
+      </c>
+      <c r="F141" t="s">
         <v>267</v>
-      </c>
-      <c r="F141" t="s">
-        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5668,10 +5665,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>268</v>
+      </c>
+      <c r="F142" t="s">
         <v>269</v>
-      </c>
-      <c r="F142" t="s">
-        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5697,10 +5694,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>270</v>
+      </c>
+      <c r="F143" t="s">
         <v>271</v>
-      </c>
-      <c r="F143" t="s">
-        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5726,10 +5723,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>272</v>
+      </c>
+      <c r="F144" t="s">
         <v>273</v>
-      </c>
-      <c r="F144" t="s">
-        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5755,10 +5752,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>274</v>
+      </c>
+      <c r="F145" t="s">
         <v>275</v>
-      </c>
-      <c r="F145" t="s">
-        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5784,10 +5781,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>276</v>
+      </c>
+      <c r="F146" t="s">
         <v>277</v>
-      </c>
-      <c r="F146" t="s">
-        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5813,10 +5810,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>278</v>
+      </c>
+      <c r="F147" t="s">
         <v>279</v>
-      </c>
-      <c r="F147" t="s">
-        <v>280</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5842,10 +5839,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>280</v>
+      </c>
+      <c r="F148" t="s">
         <v>281</v>
-      </c>
-      <c r="F148" t="s">
-        <v>282</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5871,10 +5868,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>282</v>
+      </c>
+      <c r="F149" t="s">
         <v>283</v>
-      </c>
-      <c r="F149" t="s">
-        <v>284</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5900,10 +5897,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>252</v>
+      </c>
+      <c r="F150" t="s">
         <v>253</v>
-      </c>
-      <c r="F150" t="s">
-        <v>254</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5929,10 +5926,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>284</v>
+      </c>
+      <c r="F151" t="s">
         <v>285</v>
-      </c>
-      <c r="F151" t="s">
-        <v>286</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -5958,10 +5955,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>286</v>
+      </c>
+      <c r="F152" t="s">
         <v>287</v>
-      </c>
-      <c r="F152" t="s">
-        <v>288</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5987,10 +5984,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>288</v>
+      </c>
+      <c r="F153" t="s">
         <v>289</v>
-      </c>
-      <c r="F153" t="s">
-        <v>290</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6016,10 +6013,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
+        <v>290</v>
+      </c>
+      <c r="F154" t="s">
         <v>291</v>
-      </c>
-      <c r="F154" t="s">
-        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6045,10 +6042,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
+        <v>292</v>
+      </c>
+      <c r="F155" t="s">
         <v>293</v>
-      </c>
-      <c r="F155" t="s">
-        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>3</v>
@@ -6074,10 +6071,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
+        <v>294</v>
+      </c>
+      <c r="F156" t="s">
         <v>295</v>
-      </c>
-      <c r="F156" t="s">
-        <v>296</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6103,10 +6100,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
+        <v>296</v>
+      </c>
+      <c r="F157" t="s">
         <v>297</v>
-      </c>
-      <c r="F157" t="s">
-        <v>298</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6132,10 +6129,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
+        <v>298</v>
+      </c>
+      <c r="F158" t="s">
         <v>299</v>
-      </c>
-      <c r="F158" t="s">
-        <v>300</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6161,10 +6158,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
+        <v>300</v>
+      </c>
+      <c r="F159" t="s">
         <v>301</v>
-      </c>
-      <c r="F159" t="s">
-        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>3</v>
@@ -6190,10 +6187,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
+        <v>302</v>
+      </c>
+      <c r="F160" t="s">
         <v>303</v>
-      </c>
-      <c r="F160" t="s">
-        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6219,10 +6216,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
+        <v>304</v>
+      </c>
+      <c r="F161" t="s">
         <v>305</v>
-      </c>
-      <c r="F161" t="s">
-        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6248,10 +6245,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
+        <v>306</v>
+      </c>
+      <c r="F162" t="s">
         <v>307</v>
-      </c>
-      <c r="F162" t="s">
-        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6277,10 +6274,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
+        <v>308</v>
+      </c>
+      <c r="F163" t="s">
         <v>309</v>
-      </c>
-      <c r="F163" t="s">
-        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6306,10 +6303,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
+        <v>310</v>
+      </c>
+      <c r="F164" t="s">
         <v>311</v>
-      </c>
-      <c r="F164" t="s">
-        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>6</v>
@@ -6335,10 +6332,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>312</v>
+      </c>
+      <c r="F165" t="s">
         <v>313</v>
-      </c>
-      <c r="F165" t="s">
-        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>22</v>
@@ -6364,10 +6361,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>314</v>
+      </c>
+      <c r="F166" t="s">
         <v>315</v>
-      </c>
-      <c r="F166" t="s">
-        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6393,10 +6390,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>316</v>
+      </c>
+      <c r="F167" t="s">
         <v>317</v>
-      </c>
-      <c r="F167" t="s">
-        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6422,10 +6419,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>318</v>
+      </c>
+      <c r="F168" t="s">
         <v>319</v>
-      </c>
-      <c r="F168" t="s">
-        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6451,10 +6448,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>320</v>
+      </c>
+      <c r="F169" t="s">
         <v>321</v>
-      </c>
-      <c r="F169" t="s">
-        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6480,10 +6477,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>322</v>
+      </c>
+      <c r="F170" t="s">
         <v>323</v>
-      </c>
-      <c r="F170" t="s">
-        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>3</v>
@@ -6509,10 +6506,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>324</v>
+      </c>
+      <c r="F171" t="s">
         <v>325</v>
-      </c>
-      <c r="F171" t="s">
-        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>2</v>
@@ -6538,10 +6535,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>326</v>
+      </c>
+      <c r="F172" t="s">
         <v>327</v>
-      </c>
-      <c r="F172" t="s">
-        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6596,10 +6593,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>328</v>
+      </c>
+      <c r="F174" t="s">
         <v>329</v>
-      </c>
-      <c r="F174" t="s">
-        <v>330</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6625,10 +6622,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>330</v>
+      </c>
+      <c r="F175" t="s">
         <v>331</v>
-      </c>
-      <c r="F175" t="s">
-        <v>332</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6712,10 +6709,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>332</v>
+      </c>
+      <c r="F178" t="s">
         <v>333</v>
-      </c>
-      <c r="F178" t="s">
-        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -6741,10 +6738,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>334</v>
+      </c>
+      <c r="F179" t="s">
         <v>335</v>
-      </c>
-      <c r="F179" t="s">
-        <v>336</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -6770,10 +6767,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>336</v>
+      </c>
+      <c r="F180" t="s">
         <v>337</v>
-      </c>
-      <c r="F180" t="s">
-        <v>338</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6799,10 +6796,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>338</v>
+      </c>
+      <c r="F181" t="s">
         <v>339</v>
-      </c>
-      <c r="F181" t="s">
-        <v>340</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6828,10 +6825,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>340</v>
+      </c>
+      <c r="F182" t="s">
         <v>341</v>
-      </c>
-      <c r="F182" t="s">
-        <v>342</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6857,10 +6854,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>342</v>
+      </c>
+      <c r="F183" t="s">
         <v>343</v>
-      </c>
-      <c r="F183" t="s">
-        <v>344</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6886,10 +6883,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>344</v>
+      </c>
+      <c r="F184" t="s">
         <v>345</v>
-      </c>
-      <c r="F184" t="s">
-        <v>346</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6915,10 +6912,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>346</v>
+      </c>
+      <c r="F185" t="s">
         <v>347</v>
-      </c>
-      <c r="F185" t="s">
-        <v>348</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6944,10 +6941,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>348</v>
+      </c>
+      <c r="F186" t="s">
         <v>349</v>
-      </c>
-      <c r="F186" t="s">
-        <v>350</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -6973,10 +6970,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>350</v>
+      </c>
+      <c r="F187" t="s">
         <v>351</v>
-      </c>
-      <c r="F187" t="s">
-        <v>352</v>
       </c>
       <c r="G187" t="n">
         <v>2</v>
@@ -7002,10 +6999,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>352</v>
+      </c>
+      <c r="F188" t="s">
         <v>353</v>
-      </c>
-      <c r="F188" t="s">
-        <v>354</v>
       </c>
       <c r="G188" t="n">
         <v>3</v>
@@ -7031,10 +7028,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>354</v>
+      </c>
+      <c r="F189" t="s">
         <v>355</v>
-      </c>
-      <c r="F189" t="s">
-        <v>356</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7060,10 +7057,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>356</v>
+      </c>
+      <c r="F190" t="s">
         <v>357</v>
-      </c>
-      <c r="F190" t="s">
-        <v>358</v>
       </c>
       <c r="G190" t="n">
         <v>7</v>
@@ -7089,10 +7086,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>358</v>
+      </c>
+      <c r="F191" t="s">
         <v>359</v>
-      </c>
-      <c r="F191" t="s">
-        <v>360</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7118,10 +7115,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>360</v>
+      </c>
+      <c r="F192" t="s">
         <v>361</v>
-      </c>
-      <c r="F192" t="s">
-        <v>362</v>
       </c>
       <c r="G192" t="n">
         <v>2</v>
@@ -7147,10 +7144,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>362</v>
+      </c>
+      <c r="F193" t="s">
         <v>363</v>
-      </c>
-      <c r="F193" t="s">
-        <v>364</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -7176,10 +7173,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>364</v>
+      </c>
+      <c r="F194" t="s">
         <v>365</v>
-      </c>
-      <c r="F194" t="s">
-        <v>366</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7205,10 +7202,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>366</v>
+      </c>
+      <c r="F195" t="s">
         <v>367</v>
-      </c>
-      <c r="F195" t="s">
-        <v>368</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7234,10 +7231,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>368</v>
+      </c>
+      <c r="F196" t="s">
         <v>369</v>
-      </c>
-      <c r="F196" t="s">
-        <v>370</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7292,10 +7289,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>370</v>
+      </c>
+      <c r="F198" t="s">
         <v>371</v>
-      </c>
-      <c r="F198" t="s">
-        <v>372</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7321,10 +7318,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>372</v>
+      </c>
+      <c r="F199" t="s">
         <v>373</v>
-      </c>
-      <c r="F199" t="s">
-        <v>374</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7350,10 +7347,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" t="s">
         <v>375</v>
-      </c>
-      <c r="F200" t="s">
-        <v>376</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7408,10 +7405,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>376</v>
+      </c>
+      <c r="F202" t="s">
         <v>377</v>
-      </c>
-      <c r="F202" t="s">
-        <v>378</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7437,10 +7434,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>378</v>
+      </c>
+      <c r="F203" t="s">
         <v>379</v>
-      </c>
-      <c r="F203" t="s">
-        <v>380</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7466,10 +7463,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>380</v>
+      </c>
+      <c r="F204" t="s">
         <v>381</v>
-      </c>
-      <c r="F204" t="s">
-        <v>382</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7495,10 +7492,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>382</v>
+      </c>
+      <c r="F205" t="s">
         <v>383</v>
-      </c>
-      <c r="F205" t="s">
-        <v>384</v>
       </c>
       <c r="G205" t="n">
         <v>12</v>
@@ -7524,10 +7521,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>384</v>
+      </c>
+      <c r="F206" t="s">
         <v>385</v>
-      </c>
-      <c r="F206" t="s">
-        <v>386</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7553,10 +7550,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>386</v>
+      </c>
+      <c r="F207" t="s">
         <v>387</v>
-      </c>
-      <c r="F207" t="s">
-        <v>388</v>
       </c>
       <c r="G207" t="n">
         <v>4</v>
@@ -7582,10 +7579,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>388</v>
+      </c>
+      <c r="F208" t="s">
         <v>389</v>
-      </c>
-      <c r="F208" t="s">
-        <v>390</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -7611,10 +7608,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>390</v>
+      </c>
+      <c r="F209" t="s">
         <v>391</v>
-      </c>
-      <c r="F209" t="s">
-        <v>392</v>
       </c>
       <c r="G209" t="n">
         <v>3</v>
@@ -7640,10 +7637,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>392</v>
+      </c>
+      <c r="F210" t="s">
         <v>393</v>
-      </c>
-      <c r="F210" t="s">
-        <v>394</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7669,10 +7666,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>394</v>
+      </c>
+      <c r="F211" t="s">
         <v>395</v>
-      </c>
-      <c r="F211" t="s">
-        <v>396</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7698,10 +7695,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>396</v>
+      </c>
+      <c r="F212" t="s">
         <v>397</v>
-      </c>
-      <c r="F212" t="s">
-        <v>398</v>
       </c>
       <c r="G212" t="n">
         <v>5</v>
